--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed4/result_data_KNN.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.648</v>
+        <v>-13.045</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.906</v>
+        <v>-21.831</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.372</v>
+        <v>-11.623</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.754</v>
+        <v>16.717</v>
       </c>
     </row>
     <row r="14">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.859999999999999</v>
+        <v>-8.348000000000003</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.834</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.132</v>
+        <v>-22.198</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.822</v>
+        <v>-20.447</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.128</v>
+        <v>16.295</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.814</v>
+        <v>16.512</v>
       </c>
     </row>
     <row r="25">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.688</v>
+        <v>-12.808</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.752</v>
+        <v>-21.761</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.888</v>
+        <v>-13.363</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.902</v>
+        <v>-12.124</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.606</v>
+        <v>-13.351</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-15.16</v>
+        <v>-13.818</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.290000000000003</v>
+        <v>-7.935</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.284</v>
+        <v>16.373</v>
       </c>
     </row>
     <row r="40">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.348000000000001</v>
+        <v>-7.417999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.122</v>
+        <v>17.347</v>
       </c>
     </row>
     <row r="49">
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.364</v>
+        <v>-12.751</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.65</v>
+        <v>-7.590000000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.91</v>
+        <v>16.759</v>
       </c>
     </row>
     <row r="53">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.576</v>
+        <v>-13.65</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.718</v>
+        <v>16.881</v>
       </c>
     </row>
     <row r="57">
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.23</v>
+        <v>-8.032</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.109999999999999</v>
+        <v>-7.337000000000001</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.668</v>
+        <v>-21.759</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.48</v>
+        <v>-11.747</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.216</v>
+        <v>-13.58</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.497999999999999</v>
+        <v>-7.982000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.308</v>
+        <v>-20.306</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.994</v>
+        <v>-22.205</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.774</v>
+        <v>-13.509</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.646</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="85">
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.762</v>
+        <v>-8.104000000000001</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.686</v>
+        <v>16.741</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.93</v>
+        <v>16.667</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.746</v>
+        <v>-13.419</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
